--- a/File 5-Expected and Abnormal Volume 3M byhand.xlsx
+++ b/File 5-Expected and Abnormal Volume 3M byhand.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Jordi2021\Recerca_Articles\2022Pre_Financial\Excels20220608\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Jordi2021\Recerca_Articles\2022Pre_Financial\Excels20220714\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED5C780-A040-4C30-AF40-4FFE88F84F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F5119E-B252-4F68-B09F-E035FD772EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="2" r:id="rId1"/>
     <sheet name="3M AV" sheetId="1" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <definedNames>
     <definedName name="BIG">#REF!</definedName>
     <definedName name="SMALL">#REF!</definedName>
@@ -205,9 +202,6 @@
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -222,15 +216,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -250,29 +247,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Instructions"/>
-      <sheetName val="AAV"/>
-      <sheetName val="AAV Chart"/>
-      <sheetName val="AAV Normality Test"/>
-      <sheetName val="CAAV t when Normal"/>
-      <sheetName val="CAAV Corrado"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -479,42 +453,43 @@
       <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="120.33203125" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="11.5546875" style="2"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="120.33203125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="8"/>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="2">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A1:B1"/>
@@ -531,7 +506,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.77734375" customWidth="1"/>
     <col min="2" max="2" width="8.88671875" customWidth="1"/>
@@ -543,21 +518,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="9">
+      <c r="A2" s="7">
         <v>44064</v>
       </c>
       <c r="B2">
@@ -567,7 +542,7 @@
         <v>2005583</v>
       </c>
       <c r="D2">
-        <f>C2/$F$2</f>
+        <f t="shared" ref="D2:D33" si="0">C2/$F$2</f>
         <v>0.76558523047246252</v>
       </c>
       <c r="F2">
@@ -579,7 +554,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="9">
+      <c r="A3" s="7">
         <v>44067</v>
       </c>
       <c r="B3">
@@ -589,12 +564,12 @@
         <v>2604618</v>
       </c>
       <c r="D3">
-        <f>C3/$F$2</f>
+        <f t="shared" si="0"/>
         <v>0.99425307844288879</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="9">
+      <c r="A4" s="7">
         <v>44068</v>
       </c>
       <c r="B4">
@@ -604,12 +579,12 @@
         <v>1938629</v>
       </c>
       <c r="D4">
-        <f>C4/$F$2</f>
+        <f t="shared" si="0"/>
         <v>0.74002707929095901</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="9">
+      <c r="A5" s="7">
         <v>44069</v>
       </c>
       <c r="B5">
@@ -619,12 +594,12 @@
         <v>2503413</v>
       </c>
       <c r="D5">
-        <f>C5/$F$2</f>
+        <f t="shared" si="0"/>
         <v>0.95562039495386564</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="9">
+      <c r="A6" s="7">
         <v>44070</v>
       </c>
       <c r="B6">
@@ -634,12 +609,12 @@
         <v>2325937</v>
       </c>
       <c r="D6">
-        <f>C6/$F$2</f>
+        <f t="shared" si="0"/>
         <v>0.88787300959841997</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="9">
+      <c r="A7" s="7">
         <v>44071</v>
       </c>
       <c r="B7">
@@ -649,12 +624,12 @@
         <v>3046525</v>
       </c>
       <c r="D7">
-        <f>C7/$F$2</f>
+        <f t="shared" si="0"/>
         <v>1.1629409225472687</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="9">
+      <c r="A8" s="7">
         <v>44074</v>
       </c>
       <c r="B8">
@@ -664,12 +639,12 @@
         <v>2881511</v>
       </c>
       <c r="D8">
-        <f>C8/$F$2</f>
+        <f t="shared" si="0"/>
         <v>1.0999506193680022</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="9">
+      <c r="A9" s="7">
         <v>44075</v>
       </c>
       <c r="B9">
@@ -679,12 +654,12 @@
         <v>2901444</v>
       </c>
       <c r="D9">
-        <f>C9/$F$2</f>
+        <f t="shared" si="0"/>
         <v>1.1075595841423385</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="9">
+      <c r="A10" s="7">
         <v>44076</v>
       </c>
       <c r="B10">
@@ -694,12 +669,12 @@
         <v>3943678</v>
       </c>
       <c r="D10">
-        <f>C10/$F$2</f>
+        <f t="shared" si="0"/>
         <v>1.505408467532473</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="9">
+      <c r="A11" s="7">
         <v>44077</v>
       </c>
       <c r="B11">
@@ -709,12 +684,12 @@
         <v>3481289</v>
       </c>
       <c r="D11">
-        <f>C11/$F$2</f>
+        <f t="shared" si="0"/>
         <v>1.3289020905174449</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="9">
+      <c r="A12" s="7">
         <v>44078</v>
       </c>
       <c r="B12">
@@ -724,12 +699,12 @@
         <v>3266995</v>
       </c>
       <c r="D12">
-        <f>C12/$F$2</f>
+        <f t="shared" si="0"/>
         <v>1.2471002795832347</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="9">
+      <c r="A13" s="7">
         <v>44082</v>
       </c>
       <c r="B13">
@@ -739,12 +714,12 @@
         <v>2863890</v>
       </c>
       <c r="D13">
-        <f>C13/$F$2</f>
+        <f t="shared" si="0"/>
         <v>1.0932242074737273</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="9">
+      <c r="A14" s="7">
         <v>44083</v>
       </c>
       <c r="B14">
@@ -754,12 +729,12 @@
         <v>2721750</v>
       </c>
       <c r="D14">
-        <f>C14/$F$2</f>
+        <f t="shared" si="0"/>
         <v>1.0389655282471106</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="9">
+      <c r="A15" s="7">
         <v>44084</v>
       </c>
       <c r="B15">
@@ -769,12 +744,12 @@
         <v>2054331</v>
       </c>
       <c r="D15">
-        <f>C15/$F$2</f>
+        <f t="shared" si="0"/>
         <v>0.78419365945050612</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="9">
+      <c r="A16" s="7">
         <v>44085</v>
       </c>
       <c r="B16">
@@ -784,12 +759,12 @@
         <v>1698664</v>
       </c>
       <c r="D16">
-        <f>C16/$F$2</f>
+        <f t="shared" si="0"/>
         <v>0.64842595391727742</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="9">
+      <c r="A17" s="7">
         <v>44088</v>
       </c>
       <c r="B17">
@@ -799,12 +774,12 @@
         <v>2264354</v>
       </c>
       <c r="D17">
-        <f>C17/$F$2</f>
+        <f t="shared" si="0"/>
         <v>0.86436511426415275</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="9">
+      <c r="A18" s="7">
         <v>44089</v>
       </c>
       <c r="B18">
@@ -814,12 +789,12 @@
         <v>2056474</v>
       </c>
       <c r="D18">
-        <f>C18/$F$2</f>
+        <f t="shared" si="0"/>
         <v>0.78501170046346969</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="9">
+      <c r="A19" s="7">
         <v>44090</v>
       </c>
       <c r="B19">
@@ -829,12 +804,12 @@
         <v>2932828</v>
       </c>
       <c r="D19">
-        <f>C19/$F$2</f>
+        <f t="shared" si="0"/>
         <v>1.1195397050713389</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="9">
+      <c r="A20" s="7">
         <v>44091</v>
       </c>
       <c r="B20">
@@ -844,12 +819,12 @@
         <v>2756078</v>
       </c>
       <c r="D20">
-        <f>C20/$F$2</f>
+        <f t="shared" si="0"/>
         <v>1.0520694535354973</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="9">
+      <c r="A21" s="7">
         <v>44092</v>
       </c>
       <c r="B21">
@@ -859,12 +834,12 @@
         <v>4084722</v>
       </c>
       <c r="D21">
-        <f>C21/$F$2</f>
+        <f t="shared" si="0"/>
         <v>1.5592487739405141</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="9">
+      <c r="A22" s="7">
         <v>44095</v>
       </c>
       <c r="B22">
@@ -874,12 +849,12 @@
         <v>3911678</v>
       </c>
       <c r="D22">
-        <f>C22/$F$2</f>
+        <f t="shared" si="0"/>
         <v>1.4931932027565358</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="9">
+      <c r="A23" s="7">
         <v>44096</v>
       </c>
       <c r="B23">
@@ -889,12 +864,12 @@
         <v>2103752</v>
       </c>
       <c r="D23">
-        <f>C23/$F$2</f>
+        <f t="shared" si="0"/>
         <v>0.80305899071586861</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="9">
+      <c r="A24" s="7">
         <v>44097</v>
       </c>
       <c r="B24">
@@ -904,12 +879,12 @@
         <v>2248196</v>
       </c>
       <c r="D24">
-        <f>C24/$F$2</f>
+        <f t="shared" si="0"/>
         <v>0.8581971690063529</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="9">
+      <c r="A25" s="7">
         <v>44098</v>
       </c>
       <c r="B25">
@@ -919,12 +894,12 @@
         <v>1569695</v>
       </c>
       <c r="D25">
-        <f>C25/$F$2</f>
+        <f t="shared" si="0"/>
         <v>0.59919500132703163</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="9">
+      <c r="A26" s="7">
         <v>44099</v>
       </c>
       <c r="B26">
@@ -934,12 +909,12 @@
         <v>1949057</v>
       </c>
       <c r="D26">
-        <f>C26/$F$2</f>
+        <f t="shared" si="0"/>
         <v>0.74400772869981757</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="9">
+      <c r="A27" s="7">
         <v>44102</v>
       </c>
       <c r="B27">
@@ -949,12 +924,12 @@
         <v>2098520</v>
       </c>
       <c r="D27">
-        <f>C27/$F$2</f>
+        <f t="shared" si="0"/>
         <v>0.80106179492500285</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="9">
+      <c r="A28" s="7">
         <v>44103</v>
       </c>
       <c r="B28">
@@ -964,12 +939,12 @@
         <v>2026047</v>
       </c>
       <c r="D28">
-        <f>C28/$F$2</f>
+        <f t="shared" si="0"/>
         <v>0.77339689229667441</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="9">
+      <c r="A29" s="7">
         <v>44104</v>
       </c>
       <c r="B29">
@@ -979,12 +954,12 @@
         <v>3056908</v>
       </c>
       <c r="D29">
-        <f>C29/$F$2</f>
+        <f t="shared" si="0"/>
         <v>1.1669043942400361</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="9">
+      <c r="A30" s="7">
         <v>44105</v>
       </c>
       <c r="B30">
@@ -994,12 +969,12 @@
         <v>1989312</v>
       </c>
       <c r="D30">
-        <f>C30/$F$2</f>
+        <f t="shared" si="0"/>
         <v>0.75937415006092257</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="9">
+      <c r="A31" s="7">
         <v>44106</v>
       </c>
       <c r="B31">
@@ -1009,12 +984,12 @@
         <v>1769035</v>
       </c>
       <c r="D31">
-        <f>C31/$F$2</f>
+        <f t="shared" si="0"/>
         <v>0.67528846634063644</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="9">
+      <c r="A32" s="7">
         <v>44109</v>
       </c>
       <c r="B32">
@@ -1024,12 +999,12 @@
         <v>1457201</v>
       </c>
       <c r="D32">
-        <f>C32/$F$2</f>
+        <f t="shared" si="0"/>
         <v>0.55625300146127221</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="9">
+      <c r="A33" s="7">
         <v>44110</v>
       </c>
       <c r="B33">
@@ -1039,12 +1014,12 @@
         <v>2022103</v>
       </c>
       <c r="D33">
-        <f>C33/$F$2</f>
+        <f t="shared" si="0"/>
         <v>0.77189136091304011</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="9">
+      <c r="A34" s="7">
         <v>44111</v>
       </c>
       <c r="B34">
@@ -1054,12 +1029,12 @@
         <v>2155563</v>
       </c>
       <c r="D34">
-        <f>C34/$F$2</f>
+        <f t="shared" ref="D34:D65" si="1">C34/$F$2</f>
         <v>0.82283664956918401</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="9">
+      <c r="A35" s="7">
         <v>44112</v>
       </c>
       <c r="B35">
@@ -1069,12 +1044,12 @@
         <v>1902821</v>
       </c>
       <c r="D35">
-        <f>C35/$F$2</f>
+        <f t="shared" si="1"/>
         <v>0.72635819800668511</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="9">
+      <c r="A36" s="7">
         <v>44113</v>
       </c>
       <c r="B36">
@@ -1084,12 +1059,12 @@
         <v>2015611</v>
       </c>
       <c r="D36">
-        <f>C36/$F$2</f>
+        <f t="shared" si="1"/>
         <v>0.76941318907162182</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="9">
+      <c r="A37" s="7">
         <v>44116</v>
       </c>
       <c r="B37">
@@ -1099,12 +1074,12 @@
         <v>1533855</v>
       </c>
       <c r="D37">
-        <f>C37/$F$2</f>
+        <f t="shared" si="1"/>
         <v>0.58551390477798171</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="9">
+      <c r="A38" s="7">
         <v>44117</v>
       </c>
       <c r="B38">
@@ -1114,12 +1089,12 @@
         <v>1575448</v>
       </c>
       <c r="D38">
-        <f>C38/$F$2</f>
+        <f t="shared" si="1"/>
         <v>0.60139107689753057</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="9">
+      <c r="A39" s="7">
         <v>44118</v>
       </c>
       <c r="B39">
@@ -1129,12 +1104,12 @@
         <v>1435365</v>
       </c>
       <c r="D39">
-        <f>C39/$F$2</f>
+        <f t="shared" si="1"/>
         <v>0.54791761015979201</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="9">
+      <c r="A40" s="7">
         <v>44119</v>
       </c>
       <c r="B40">
@@ -1144,12 +1119,12 @@
         <v>1638271</v>
       </c>
       <c r="D40">
-        <f>C40/$F$2</f>
+        <f t="shared" si="1"/>
         <v>0.62537231374186542</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="9">
+      <c r="A41" s="7">
         <v>44120</v>
       </c>
       <c r="B41">
@@ -1159,12 +1134,12 @@
         <v>2478787</v>
       </c>
       <c r="D41">
-        <f>C41/$F$2</f>
+        <f t="shared" si="1"/>
         <v>0.94621998525473339</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="9">
+      <c r="A42" s="7">
         <v>44123</v>
       </c>
       <c r="B42">
@@ -1174,12 +1149,12 @@
         <v>1910123</v>
       </c>
       <c r="D42">
-        <f>C42/$F$2</f>
+        <f t="shared" si="1"/>
         <v>0.72914556873774428</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="9">
+      <c r="A43" s="7">
         <v>44124</v>
       </c>
       <c r="B43">
@@ -1189,12 +1164,12 @@
         <v>1813211</v>
       </c>
       <c r="D43">
-        <f>C43/$F$2</f>
+        <f t="shared" si="1"/>
         <v>0.69215163936381796</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="9">
+      <c r="A44" s="7">
         <v>44125</v>
       </c>
       <c r="B44">
@@ -1204,12 +1179,12 @@
         <v>1511112</v>
       </c>
       <c r="D44">
-        <f>C44/$F$2</f>
+        <f t="shared" si="1"/>
         <v>0.57683228706550849</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="9">
+      <c r="A45" s="7">
         <v>44126</v>
       </c>
       <c r="B45">
@@ -1219,12 +1194,12 @@
         <v>1663268</v>
       </c>
       <c r="D45">
-        <f>C45/$F$2</f>
+        <f t="shared" si="1"/>
         <v>0.63491434416699366</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="9">
+      <c r="A46" s="7">
         <v>44127</v>
       </c>
       <c r="B46">
@@ -1234,12 +1209,12 @@
         <v>2137484</v>
       </c>
       <c r="D46">
-        <f>C46/$F$2</f>
+        <f t="shared" si="1"/>
         <v>0.81593540669780362</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="9">
+      <c r="A47" s="7">
         <v>44130</v>
       </c>
       <c r="B47">
@@ -1249,12 +1224,12 @@
         <v>3338767</v>
       </c>
       <c r="D47">
-        <f>C47/$F$2</f>
+        <f t="shared" si="1"/>
         <v>1.2744975915675651</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="9">
+      <c r="A48" s="7">
         <v>44131</v>
       </c>
       <c r="B48">
@@ -1264,12 +1239,12 @@
         <v>3894419</v>
       </c>
       <c r="D48">
-        <f>C48/$F$2</f>
+        <f t="shared" si="1"/>
         <v>1.4866049760450388</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="9">
+      <c r="A49" s="7">
         <v>44132</v>
       </c>
       <c r="B49">
@@ -1279,12 +1254,12 @@
         <v>3065174</v>
       </c>
       <c r="D49">
-        <f>C49/$F$2</f>
+        <f t="shared" si="1"/>
         <v>1.1700597498224705</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="9">
+      <c r="A50" s="7">
         <v>44133</v>
       </c>
       <c r="B50">
@@ -1294,12 +1269,12 @@
         <v>2680871</v>
       </c>
       <c r="D50">
-        <f>C50/$F$2</f>
+        <f t="shared" si="1"/>
         <v>1.0233609092228748</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="9">
+      <c r="A51" s="7">
         <v>44134</v>
       </c>
       <c r="B51">
@@ -1309,12 +1284,12 @@
         <v>2234526</v>
       </c>
       <c r="D51">
-        <f>C51/$F$2</f>
+        <f t="shared" si="1"/>
         <v>0.85297896058488221</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="9">
+      <c r="A52" s="7">
         <v>44137</v>
       </c>
       <c r="B52">
@@ -1324,12 +1299,12 @@
         <v>2116638</v>
       </c>
       <c r="D52">
-        <f>C52/$F$2</f>
+        <f t="shared" si="1"/>
         <v>0.80797792515032885</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="9">
+      <c r="A53" s="7">
         <v>44138</v>
       </c>
       <c r="B53">
@@ -1339,12 +1314,12 @@
         <v>1896938</v>
       </c>
       <c r="D53">
-        <f>C53/$F$2</f>
+        <f t="shared" si="1"/>
         <v>0.72411249792303389</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="9">
+      <c r="A54" s="7">
         <v>44139</v>
       </c>
       <c r="B54">
@@ -1354,12 +1329,12 @@
         <v>3140859</v>
       </c>
       <c r="D54">
-        <f>C54/$F$2</f>
+        <f t="shared" si="1"/>
         <v>1.1989507596526836</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="9">
+      <c r="A55" s="7">
         <v>44140</v>
       </c>
       <c r="B55">
@@ -1369,12 +1344,12 @@
         <v>2178474</v>
       </c>
       <c r="D55">
-        <f>C55/$F$2</f>
+        <f t="shared" si="1"/>
         <v>0.8315823974217309</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="9">
+      <c r="A56" s="7">
         <v>44141</v>
       </c>
       <c r="B56">
@@ -1384,12 +1359,12 @@
         <v>1685324</v>
       </c>
       <c r="D56">
-        <f>C56/$F$2</f>
+        <f t="shared" si="1"/>
         <v>0.64333371541380857</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="9">
+      <c r="A57" s="7">
         <v>44144</v>
       </c>
       <c r="B57">
@@ -1399,12 +1374,12 @@
         <v>4418106</v>
       </c>
       <c r="D57">
-        <f>C57/$F$2</f>
+        <f t="shared" si="1"/>
         <v>1.6865104561924236</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="9">
+      <c r="A58" s="7">
         <v>44145</v>
       </c>
       <c r="B58">
@@ -1414,12 +1389,12 @@
         <v>3500448</v>
       </c>
       <c r="D58">
-        <f>C58/$F$2</f>
+        <f t="shared" si="1"/>
         <v>1.336215598575013</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="9">
+      <c r="A59" s="7">
         <v>44146</v>
       </c>
       <c r="B59">
@@ -1429,12 +1404,12 @@
         <v>2884393</v>
       </c>
       <c r="D59">
-        <f>C59/$F$2</f>
+        <f t="shared" si="1"/>
         <v>1.101050756651885</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="9">
+      <c r="A60" s="7">
         <v>44147</v>
       </c>
       <c r="B60">
@@ -1444,12 +1419,12 @@
         <v>2217850</v>
       </c>
       <c r="D60">
-        <f>C60/$F$2</f>
+        <f t="shared" si="1"/>
         <v>0.84661328072852182</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="9">
+      <c r="A61" s="7">
         <v>44148</v>
       </c>
       <c r="B61">
@@ -1459,12 +1434,12 @@
         <v>1813755</v>
       </c>
       <c r="D61">
-        <f>C61/$F$2</f>
+        <f t="shared" si="1"/>
         <v>0.69235929886500891</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="9">
+      <c r="A62" s="7">
         <v>44151</v>
       </c>
       <c r="B62">
@@ -1474,12 +1449,12 @@
         <v>2434259</v>
       </c>
       <c r="D62">
-        <f>C62/$F$2</f>
+        <f t="shared" si="1"/>
         <v>0.92922244431901646</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="9">
+      <c r="A63" s="7">
         <v>44152</v>
       </c>
       <c r="B63">
@@ -1489,12 +1464,12 @@
         <v>2589981</v>
       </c>
       <c r="D63">
-        <f>C63/$F$2</f>
+        <f t="shared" si="1"/>
         <v>0.98866573998897023</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="9">
+      <c r="A64" s="7">
         <v>44153</v>
       </c>
       <c r="B64">
@@ -1504,12 +1479,12 @@
         <v>2615812</v>
       </c>
       <c r="D64">
-        <f>C64/$F$2</f>
+        <f t="shared" si="1"/>
         <v>0.99852613075232144</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="9">
+      <c r="A65" s="7">
         <v>44154</v>
       </c>
       <c r="B65">
@@ -1519,12 +1494,12 @@
         <v>2986012</v>
       </c>
       <c r="D65">
-        <f>C65/$F$2</f>
+        <f t="shared" si="1"/>
         <v>1.139841475128947</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="9">
+      <c r="A66" s="7">
         <v>44155</v>
       </c>
       <c r="B66">
@@ -1534,12 +1509,12 @@
         <v>2657064</v>
       </c>
       <c r="D66">
-        <f>C66/$F$2</f>
+        <f t="shared" ref="D66:D97" si="2">C66/$F$2</f>
         <v>1.0142731339566018</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="9">
+      <c r="A67" s="7">
         <v>44158</v>
       </c>
       <c r="B67">
@@ -1549,12 +1524,12 @@
         <v>2065084</v>
       </c>
       <c r="D67">
-        <f>C67/$F$2</f>
+        <f t="shared" si="2"/>
         <v>0.78829837014224524</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="9">
+      <c r="A68" s="7">
         <v>44159</v>
       </c>
       <c r="B68">
@@ -1564,12 +1539,12 @@
         <v>3086052</v>
       </c>
       <c r="D68">
-        <f>C68/$F$2</f>
+        <f t="shared" si="2"/>
         <v>1.178029446634721</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="9">
+      <c r="A69" s="7">
         <v>44160</v>
       </c>
       <c r="B69">
@@ -1579,12 +1554,12 @@
         <v>2052393</v>
       </c>
       <c r="D69">
-        <f>C69/$F$2</f>
+        <f t="shared" si="2"/>
         <v>0.78345387247751341</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="9">
+      <c r="A70" s="7">
         <v>44162</v>
       </c>
       <c r="B70">
@@ -1594,12 +1569,12 @@
         <v>1267131</v>
       </c>
       <c r="D70">
-        <f>C70/$F$2</f>
+        <f t="shared" si="2"/>
         <v>0.48369814596244676</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="9">
+      <c r="A71" s="7">
         <v>44165</v>
       </c>
       <c r="B71">
@@ -1609,12 +1584,12 @@
         <v>6141333</v>
       </c>
       <c r="D71">
-        <f>C71/$F$2</f>
+        <f t="shared" si="2"/>
         <v>2.3443127710063059</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="9">
+      <c r="A72" s="7">
         <v>44166</v>
       </c>
       <c r="B72">
@@ -1624,12 +1599,12 @@
         <v>3859872</v>
       </c>
       <c r="D72">
-        <f>C72/$F$2</f>
+        <f t="shared" si="2"/>
         <v>1.4734174525383417</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="9">
+      <c r="A73" s="7">
         <v>44167</v>
       </c>
       <c r="B73">
@@ -1639,12 +1614,12 @@
         <v>2421915</v>
       </c>
       <c r="D73">
-        <f>C73/$F$2</f>
+        <f t="shared" si="2"/>
         <v>0.92451040593169864</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="9">
+      <c r="A74" s="7">
         <v>44168</v>
       </c>
       <c r="B74">
@@ -1654,12 +1629,12 @@
         <v>2377756</v>
       </c>
       <c r="D74">
-        <f>C74/$F$2</f>
+        <f t="shared" si="2"/>
         <v>0.90765372226792929</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="9">
+      <c r="A75" s="7">
         <v>44169</v>
       </c>
       <c r="B75">
@@ -1669,12 +1644,12 @@
         <v>2663697</v>
       </c>
       <c r="D75">
-        <f>C75/$F$2</f>
+        <f t="shared" si="2"/>
         <v>1.016805129308439</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="9">
+      <c r="A76" s="7">
         <v>44172</v>
       </c>
       <c r="B76">
@@ -1684,12 +1659,12 @@
         <v>2526799</v>
       </c>
       <c r="D76">
-        <f>C76/$F$2</f>
+        <f t="shared" si="2"/>
         <v>0.96454746314293038</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="9">
+      <c r="A77" s="7">
         <v>44173</v>
       </c>
       <c r="B77">
@@ -1699,12 +1674,12 @@
         <v>1731078</v>
       </c>
       <c r="D77">
-        <f>C77/$F$2</f>
+        <f t="shared" si="2"/>
         <v>0.66079925368125347</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="9">
+      <c r="A78" s="7">
         <v>44174</v>
       </c>
       <c r="B78">
@@ -1714,12 +1689,12 @@
         <v>2790944</v>
       </c>
       <c r="D78">
-        <f>C78/$F$2</f>
+        <f t="shared" si="2"/>
         <v>1.0653787479629298</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="9">
+      <c r="A79" s="7">
         <v>44175</v>
       </c>
       <c r="B79">
@@ -1729,12 +1704,12 @@
         <v>2228955</v>
       </c>
       <c r="D79">
-        <f>C79/$F$2</f>
+        <f t="shared" si="2"/>
         <v>0.85085235933279635</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="9">
+      <c r="A80" s="7">
         <v>44176</v>
       </c>
       <c r="B80">
@@ -1744,12 +1719,12 @@
         <v>1875764</v>
       </c>
       <c r="D80">
-        <f>C80/$F$2</f>
+        <f t="shared" si="2"/>
         <v>0.71602980991160581</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="9">
+      <c r="A81" s="7">
         <v>44179</v>
       </c>
       <c r="B81">
@@ -1759,12 +1734,12 @@
         <v>3700396</v>
       </c>
       <c r="D81">
-        <f>C81/$F$2</f>
+        <f t="shared" si="2"/>
         <v>1.4125411536193606</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="9">
+      <c r="A82" s="7">
         <v>44180</v>
       </c>
       <c r="B82">
@@ -1774,12 +1749,12 @@
         <v>2270590</v>
       </c>
       <c r="D82">
-        <f>C82/$F$2</f>
+        <f t="shared" si="2"/>
         <v>0.86674556398736358</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="9">
+      <c r="A83" s="7">
         <v>44181</v>
       </c>
       <c r="B83">
@@ -1789,12 +1764,12 @@
         <v>1949884</v>
       </c>
       <c r="D83">
-        <f>C83/$F$2</f>
+        <f t="shared" si="2"/>
         <v>0.74432341694887072</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="9">
+      <c r="A84" s="7">
         <v>44182</v>
       </c>
       <c r="B84">
@@ -1804,12 +1779,12 @@
         <v>2327857</v>
       </c>
       <c r="D84">
-        <f>C84/$F$2</f>
+        <f t="shared" si="2"/>
         <v>0.8886059254849763</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="9">
+      <c r="A85" s="7">
         <v>44183</v>
       </c>
       <c r="B85">
@@ -1819,12 +1794,12 @@
         <v>4682043</v>
       </c>
       <c r="D85">
-        <f>C85/$F$2</f>
+        <f t="shared" si="2"/>
         <v>1.7872623417913793</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="9">
+      <c r="A86" s="7">
         <v>44186</v>
       </c>
       <c r="B86">
@@ -1834,12 +1809,12 @@
         <v>1704598</v>
       </c>
       <c r="D86">
-        <f>C86/$F$2</f>
+        <f t="shared" si="2"/>
         <v>0.65069112207916535</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="9">
+      <c r="A87" s="7">
         <v>44187</v>
       </c>
       <c r="B87">
@@ -1849,12 +1824,12 @@
         <v>1381319</v>
       </c>
       <c r="D87">
-        <f>C87/$F$2</f>
+        <f t="shared" si="2"/>
         <v>0.5272867914072823</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="9">
+      <c r="A88" s="7">
         <v>44188</v>
       </c>
       <c r="B88">
@@ -1864,12 +1839,12 @@
         <v>1762603</v>
       </c>
       <c r="D88">
-        <f>C88/$F$2</f>
+        <f t="shared" si="2"/>
         <v>0.67283319812067299</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="9">
+      <c r="A89" s="7">
         <v>44189</v>
       </c>
       <c r="B89">
@@ -1879,12 +1854,12 @@
         <v>656184</v>
       </c>
       <c r="D89">
-        <f>C89/$F$2</f>
+        <f t="shared" si="2"/>
         <v>0.25048316567917772</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="9">
+      <c r="A90" s="7">
         <v>44193</v>
       </c>
       <c r="B90">
@@ -1894,12 +1869,12 @@
         <v>1403291</v>
       </c>
       <c r="D90">
-        <f>C90/$F$2</f>
+        <f t="shared" si="2"/>
         <v>0.53567409758406026</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="9">
+      <c r="A91" s="7">
         <v>44194</v>
       </c>
       <c r="B91">
@@ -1909,12 +1884,12 @@
         <v>1219160</v>
       </c>
       <c r="D91">
-        <f>C91/$F$2</f>
+        <f t="shared" si="2"/>
         <v>0.46538631888224391</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="9">
+      <c r="A92" s="7">
         <v>44195</v>
       </c>
       <c r="B92">
@@ -1924,12 +1899,12 @@
         <v>1419086</v>
       </c>
       <c r="D92">
-        <f>C92/$F$2</f>
+        <f t="shared" si="2"/>
         <v>0.54170347593205814</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="9">
+      <c r="A93" s="7">
         <v>44196</v>
       </c>
       <c r="B93">
@@ -1939,12 +1914,12 @@
         <v>1841338</v>
       </c>
       <c r="D93">
-        <f>C93/$F$2</f>
+        <f t="shared" si="2"/>
         <v>0.70288847537484267</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="9">
+      <c r="A94" s="7">
         <v>44200</v>
       </c>
       <c r="B94">
@@ -1954,12 +1929,12 @@
         <v>2996278</v>
       </c>
       <c r="D94">
-        <f>C94/$F$2</f>
+        <f t="shared" si="2"/>
         <v>1.1437602847598773</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="9">
+      <c r="A95" s="7">
         <v>44201</v>
       </c>
       <c r="B95">
@@ -1969,12 +1944,12 @@
         <v>2295297</v>
       </c>
       <c r="D95">
-        <f>C95/$F$2</f>
+        <f t="shared" si="2"/>
         <v>0.87617689357546003</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="9">
+      <c r="A96" s="7">
         <v>44202</v>
       </c>
       <c r="B96">
@@ -1984,12 +1959,12 @@
         <v>3346410</v>
       </c>
       <c r="D96">
-        <f>C96/$F$2</f>
+        <f t="shared" si="2"/>
         <v>1.2774151312138931</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="9">
+      <c r="A97" s="7">
         <v>44203</v>
       </c>
       <c r="B97">
@@ -1999,12 +1974,12 @@
         <v>5863373</v>
       </c>
       <c r="D97">
-        <f>C97/$F$2</f>
+        <f t="shared" si="2"/>
         <v>2.2382079273463198</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" s="9">
+      <c r="A98" s="7">
         <v>44204</v>
       </c>
       <c r="B98">
@@ -2014,12 +1989,12 @@
         <v>4808130</v>
       </c>
       <c r="D98">
-        <f>C98/$F$2</f>
+        <f t="shared" ref="D98:D129" si="3">C98/$F$2</f>
         <v>1.8353931570977422</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" s="9">
+      <c r="A99" s="7">
         <v>44207</v>
       </c>
       <c r="B99">
@@ -2029,12 +2004,12 @@
         <v>2737062</v>
       </c>
       <c r="D99">
-        <f>C99/$F$2</f>
+        <f t="shared" si="3"/>
         <v>1.0448105324423966</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="9">
+      <c r="A100" s="7">
         <v>44208</v>
       </c>
       <c r="B100">
@@ -2044,12 +2019,12 @@
         <v>2949382</v>
       </c>
       <c r="D100">
-        <f>C100/$F$2</f>
+        <f t="shared" si="3"/>
         <v>1.1258588142307411</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" s="9">
+      <c r="A101" s="7">
         <v>44209</v>
       </c>
       <c r="B101">
@@ -2059,12 +2034,12 @@
         <v>2098001</v>
       </c>
       <c r="D101">
-        <f>C101/$F$2</f>
+        <f t="shared" si="3"/>
         <v>0.80086367859941809</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" s="9">
+      <c r="A102" s="7">
         <v>44210</v>
       </c>
       <c r="B102">
@@ -2074,12 +2049,12 @@
         <v>2895434</v>
       </c>
       <c r="D102">
-        <f>C102/$F$2</f>
+        <f t="shared" si="3"/>
         <v>1.1052654047266077</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" s="9">
+      <c r="A103" s="7">
         <v>44211</v>
       </c>
       <c r="B103">
@@ -2089,12 +2064,12 @@
         <v>3550695</v>
       </c>
       <c r="D103">
-        <f>C103/$F$2</f>
+        <f t="shared" si="3"/>
         <v>1.3553962363624044</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" s="9">
+      <c r="A104" s="7">
         <v>44215</v>
       </c>
       <c r="B104">
@@ -2104,12 +2079,12 @@
         <v>3903171</v>
       </c>
       <c r="D104">
-        <f>C104/$F$2</f>
+        <f t="shared" si="3"/>
         <v>1.4899458509612575</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" s="9">
+      <c r="A105" s="7">
         <v>44216</v>
       </c>
       <c r="B105">
@@ -2119,12 +2094,12 @@
         <v>2672491</v>
       </c>
       <c r="D105">
-        <f>C105/$F$2</f>
+        <f t="shared" si="3"/>
         <v>1.0201620367596762</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" s="9">
+      <c r="A106" s="7">
         <v>44217</v>
       </c>
       <c r="B106">
@@ -2134,12 +2109,12 @@
         <v>2688484</v>
       </c>
       <c r="D106">
-        <f>C106/$F$2</f>
+        <f t="shared" si="3"/>
         <v>1.0262669970584752</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" s="9">
+      <c r="A107" s="7">
         <v>44218</v>
       </c>
       <c r="B107">
@@ -2149,12 +2124,12 @@
         <v>2349343</v>
       </c>
       <c r="D107">
-        <f>C107/$F$2</f>
+        <f t="shared" si="3"/>
         <v>0.89680771232796974</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" s="9">
+      <c r="A108" s="7">
         <v>44221</v>
       </c>
       <c r="B108">
@@ -2164,12 +2139,12 @@
         <v>3353099</v>
       </c>
       <c r="D108">
-        <f>C108/$F$2</f>
+        <f t="shared" si="3"/>
         <v>1.2799685032790882</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" s="9">
+      <c r="A109" s="7">
         <v>44222</v>
       </c>
       <c r="B109">
@@ -2179,12 +2154,12 @@
         <v>5148862</v>
       </c>
       <c r="D109">
-        <f>C109/$F$2</f>
+        <f t="shared" si="3"/>
         <v>1.9654597695238263</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" s="9">
+      <c r="A110" s="7">
         <v>44223</v>
       </c>
       <c r="B110">
@@ -2194,12 +2169,12 @@
         <v>8096996</v>
       </c>
       <c r="D110">
-        <f>C110/$F$2</f>
+        <f t="shared" si="3"/>
         <v>3.0908421884283057</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" s="9">
+      <c r="A111" s="7">
         <v>44224</v>
       </c>
       <c r="B111">
@@ -2209,12 +2184,12 @@
         <v>4153707</v>
       </c>
       <c r="D111">
-        <f>C111/$F$2</f>
+        <f t="shared" si="3"/>
         <v>1.5855822127082653</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" s="9">
+      <c r="A112" s="7">
         <v>44225</v>
       </c>
       <c r="B112">
@@ -2224,1178 +2199,1179 @@
         <v>4217186</v>
       </c>
       <c r="D112">
-        <f>C112/$F$2</f>
+        <f t="shared" si="3"/>
         <v>1.6098138624805067</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A113" s="9"/>
+      <c r="A113" s="7"/>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A114" s="9"/>
+      <c r="A114" s="7"/>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A115" s="9"/>
+      <c r="A115" s="7"/>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A116" s="9"/>
+      <c r="A116" s="7"/>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A117" s="9"/>
+      <c r="A117" s="7"/>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A118" s="9"/>
+      <c r="A118" s="7"/>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A119" s="9"/>
+      <c r="A119" s="7"/>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A120" s="9"/>
+      <c r="A120" s="7"/>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A121" s="9"/>
+      <c r="A121" s="7"/>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A122" s="9"/>
+      <c r="A122" s="7"/>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A123" s="9"/>
+      <c r="A123" s="7"/>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A124" s="9"/>
+      <c r="A124" s="7"/>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A125" s="9"/>
+      <c r="A125" s="7"/>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A126" s="9"/>
+      <c r="A126" s="7"/>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A127" s="9"/>
+      <c r="A127" s="7"/>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A128" s="9"/>
+      <c r="A128" s="7"/>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A129" s="9"/>
+      <c r="A129" s="7"/>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A130" s="9"/>
+      <c r="A130" s="7"/>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A131" s="9"/>
+      <c r="A131" s="7"/>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A132" s="9"/>
+      <c r="A132" s="7"/>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A133" s="9"/>
+      <c r="A133" s="7"/>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A134" s="9"/>
+      <c r="A134" s="7"/>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A135" s="9"/>
+      <c r="A135" s="7"/>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A136" s="9"/>
+      <c r="A136" s="7"/>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A137" s="9"/>
+      <c r="A137" s="7"/>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A138" s="9"/>
+      <c r="A138" s="7"/>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A139" s="9"/>
+      <c r="A139" s="7"/>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A140" s="9"/>
+      <c r="A140" s="7"/>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A141" s="9"/>
+      <c r="A141" s="7"/>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A142" s="9"/>
+      <c r="A142" s="7"/>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A143" s="9"/>
+      <c r="A143" s="7"/>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A144" s="9"/>
+      <c r="A144" s="7"/>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A145" s="9"/>
+      <c r="A145" s="7"/>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A146" s="9"/>
+      <c r="A146" s="7"/>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A147" s="9"/>
+      <c r="A147" s="7"/>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A148" s="9"/>
+      <c r="A148" s="7"/>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A149" s="9"/>
+      <c r="A149" s="7"/>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A150" s="9"/>
+      <c r="A150" s="7"/>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A151" s="9"/>
+      <c r="A151" s="7"/>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A152" s="9"/>
+      <c r="A152" s="7"/>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A153" s="9"/>
+      <c r="A153" s="7"/>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A154" s="9"/>
+      <c r="A154" s="7"/>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A155" s="9"/>
+      <c r="A155" s="7"/>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A156" s="9"/>
+      <c r="A156" s="7"/>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A157" s="9"/>
+      <c r="A157" s="7"/>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A158" s="9"/>
+      <c r="A158" s="7"/>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A159" s="9"/>
+      <c r="A159" s="7"/>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A160" s="9"/>
+      <c r="A160" s="7"/>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A161" s="9"/>
+      <c r="A161" s="7"/>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A162" s="9"/>
+      <c r="A162" s="7"/>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A163" s="9"/>
+      <c r="A163" s="7"/>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A164" s="9"/>
+      <c r="A164" s="7"/>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A165" s="9"/>
+      <c r="A165" s="7"/>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A166" s="9"/>
+      <c r="A166" s="7"/>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A167" s="9"/>
+      <c r="A167" s="7"/>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A168" s="9"/>
+      <c r="A168" s="7"/>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A169" s="9"/>
+      <c r="A169" s="7"/>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A170" s="9"/>
+      <c r="A170" s="7"/>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A171" s="9"/>
+      <c r="A171" s="7"/>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A172" s="9"/>
+      <c r="A172" s="7"/>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A173" s="9"/>
+      <c r="A173" s="7"/>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A174" s="9"/>
+      <c r="A174" s="7"/>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A175" s="9"/>
+      <c r="A175" s="7"/>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A176" s="9"/>
+      <c r="A176" s="7"/>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A177" s="9"/>
+      <c r="A177" s="7"/>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A178" s="9"/>
+      <c r="A178" s="7"/>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A179" s="9"/>
+      <c r="A179" s="7"/>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A180" s="9"/>
+      <c r="A180" s="7"/>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A181" s="9"/>
+      <c r="A181" s="7"/>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A182" s="9"/>
+      <c r="A182" s="7"/>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A183" s="9"/>
+      <c r="A183" s="7"/>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A184" s="9"/>
+      <c r="A184" s="7"/>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A185" s="9"/>
+      <c r="A185" s="7"/>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A186" s="9"/>
+      <c r="A186" s="7"/>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A187" s="9"/>
+      <c r="A187" s="7"/>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A188" s="9"/>
+      <c r="A188" s="7"/>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A189" s="9"/>
+      <c r="A189" s="7"/>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A190" s="9"/>
+      <c r="A190" s="7"/>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A191" s="9"/>
+      <c r="A191" s="7"/>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A192" s="9"/>
+      <c r="A192" s="7"/>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A193" s="9"/>
+      <c r="A193" s="7"/>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A194" s="9"/>
+      <c r="A194" s="7"/>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A195" s="9"/>
+      <c r="A195" s="7"/>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A196" s="9"/>
+      <c r="A196" s="7"/>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A197" s="9"/>
+      <c r="A197" s="7"/>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A198" s="9"/>
+      <c r="A198" s="7"/>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A199" s="9"/>
+      <c r="A199" s="7"/>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A200" s="9"/>
+      <c r="A200" s="7"/>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A201" s="9"/>
+      <c r="A201" s="7"/>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A202" s="9"/>
+      <c r="A202" s="7"/>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A203" s="9"/>
+      <c r="A203" s="7"/>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A204" s="9"/>
+      <c r="A204" s="7"/>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A205" s="9"/>
+      <c r="A205" s="7"/>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A206" s="9"/>
+      <c r="A206" s="7"/>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A207" s="9"/>
+      <c r="A207" s="7"/>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A208" s="9"/>
+      <c r="A208" s="7"/>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A209" s="9"/>
+      <c r="A209" s="7"/>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A210" s="9"/>
+      <c r="A210" s="7"/>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A211" s="9"/>
+      <c r="A211" s="7"/>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A212" s="9"/>
+      <c r="A212" s="7"/>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A213" s="9"/>
+      <c r="A213" s="7"/>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A214" s="9"/>
+      <c r="A214" s="7"/>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A215" s="9"/>
+      <c r="A215" s="7"/>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A216" s="9"/>
+      <c r="A216" s="7"/>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A217" s="9"/>
+      <c r="A217" s="7"/>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A218" s="9"/>
+      <c r="A218" s="7"/>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A219" s="9"/>
+      <c r="A219" s="7"/>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A220" s="9"/>
+      <c r="A220" s="7"/>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A221" s="9"/>
+      <c r="A221" s="7"/>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A222" s="9"/>
+      <c r="A222" s="7"/>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A223" s="9"/>
+      <c r="A223" s="7"/>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A224" s="9"/>
+      <c r="A224" s="7"/>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A225" s="9"/>
+      <c r="A225" s="7"/>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A226" s="9"/>
+      <c r="A226" s="7"/>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A227" s="9"/>
+      <c r="A227" s="7"/>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A228" s="9"/>
+      <c r="A228" s="7"/>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A229" s="9"/>
+      <c r="A229" s="7"/>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A230" s="9"/>
+      <c r="A230" s="7"/>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A231" s="9"/>
+      <c r="A231" s="7"/>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A232" s="9"/>
+      <c r="A232" s="7"/>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A233" s="9"/>
+      <c r="A233" s="7"/>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A234" s="9"/>
+      <c r="A234" s="7"/>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A235" s="9"/>
+      <c r="A235" s="7"/>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A236" s="9"/>
+      <c r="A236" s="7"/>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A237" s="9"/>
+      <c r="A237" s="7"/>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A238" s="9"/>
+      <c r="A238" s="7"/>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A239" s="9"/>
+      <c r="A239" s="7"/>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A240" s="9"/>
+      <c r="A240" s="7"/>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A241" s="9"/>
+      <c r="A241" s="7"/>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A242" s="9"/>
+      <c r="A242" s="7"/>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A243" s="9"/>
+      <c r="A243" s="7"/>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A244" s="9"/>
+      <c r="A244" s="7"/>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A245" s="9"/>
+      <c r="A245" s="7"/>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A246" s="9"/>
+      <c r="A246" s="7"/>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A247" s="9"/>
+      <c r="A247" s="7"/>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A248" s="9"/>
+      <c r="A248" s="7"/>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A249" s="9"/>
+      <c r="A249" s="7"/>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A250" s="9"/>
+      <c r="A250" s="7"/>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A251" s="9"/>
+      <c r="A251" s="7"/>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A252" s="9"/>
+      <c r="A252" s="7"/>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A253" s="9"/>
+      <c r="A253" s="7"/>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A254" s="9"/>
+      <c r="A254" s="7"/>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A255" s="9"/>
+      <c r="A255" s="7"/>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A256" s="9"/>
+      <c r="A256" s="7"/>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A257" s="9"/>
+      <c r="A257" s="7"/>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A258" s="9"/>
+      <c r="A258" s="7"/>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A259" s="9"/>
+      <c r="A259" s="7"/>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A260" s="9"/>
+      <c r="A260" s="7"/>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A261" s="9"/>
+      <c r="A261" s="7"/>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A262" s="9"/>
+      <c r="A262" s="7"/>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A263" s="9"/>
+      <c r="A263" s="7"/>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A264" s="9"/>
+      <c r="A264" s="7"/>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A265" s="9"/>
+      <c r="A265" s="7"/>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A266" s="9"/>
+      <c r="A266" s="7"/>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A267" s="9"/>
+      <c r="A267" s="7"/>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A268" s="9"/>
+      <c r="A268" s="7"/>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A269" s="9"/>
+      <c r="A269" s="7"/>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A270" s="9"/>
+      <c r="A270" s="7"/>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A271" s="9"/>
+      <c r="A271" s="7"/>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A272" s="9"/>
+      <c r="A272" s="7"/>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A273" s="9"/>
+      <c r="A273" s="7"/>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A274" s="9"/>
+      <c r="A274" s="7"/>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A275" s="9"/>
+      <c r="A275" s="7"/>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A276" s="9"/>
+      <c r="A276" s="7"/>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A277" s="9"/>
+      <c r="A277" s="7"/>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A278" s="9"/>
+      <c r="A278" s="7"/>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A279" s="9"/>
+      <c r="A279" s="7"/>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A280" s="9"/>
+      <c r="A280" s="7"/>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A281" s="9"/>
+      <c r="A281" s="7"/>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A282" s="9"/>
+      <c r="A282" s="7"/>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A283" s="9"/>
+      <c r="A283" s="7"/>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A284" s="9"/>
+      <c r="A284" s="7"/>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A285" s="9"/>
+      <c r="A285" s="7"/>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A286" s="9"/>
+      <c r="A286" s="7"/>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A287" s="9"/>
+      <c r="A287" s="7"/>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A288" s="9"/>
+      <c r="A288" s="7"/>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A289" s="9"/>
+      <c r="A289" s="7"/>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A290" s="9"/>
+      <c r="A290" s="7"/>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A291" s="9"/>
+      <c r="A291" s="7"/>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A292" s="9"/>
+      <c r="A292" s="7"/>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A293" s="9"/>
+      <c r="A293" s="7"/>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A294" s="9"/>
+      <c r="A294" s="7"/>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A295" s="9"/>
+      <c r="A295" s="7"/>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A296" s="9"/>
+      <c r="A296" s="7"/>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A297" s="9"/>
+      <c r="A297" s="7"/>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A298" s="9"/>
+      <c r="A298" s="7"/>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A299" s="9"/>
+      <c r="A299" s="7"/>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A300" s="9"/>
+      <c r="A300" s="7"/>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A301" s="9"/>
+      <c r="A301" s="7"/>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A302" s="9"/>
+      <c r="A302" s="7"/>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A303" s="9"/>
+      <c r="A303" s="7"/>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A304" s="9"/>
+      <c r="A304" s="7"/>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A305" s="9"/>
+      <c r="A305" s="7"/>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A306" s="9"/>
+      <c r="A306" s="7"/>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A307" s="9"/>
+      <c r="A307" s="7"/>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A308" s="9"/>
+      <c r="A308" s="7"/>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A309" s="9"/>
+      <c r="A309" s="7"/>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A310" s="9"/>
+      <c r="A310" s="7"/>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A311" s="9"/>
+      <c r="A311" s="7"/>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A312" s="9"/>
+      <c r="A312" s="7"/>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A313" s="9"/>
+      <c r="A313" s="7"/>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A314" s="9"/>
+      <c r="A314" s="7"/>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A315" s="9"/>
+      <c r="A315" s="7"/>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A316" s="9"/>
+      <c r="A316" s="7"/>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A317" s="9"/>
+      <c r="A317" s="7"/>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A318" s="9"/>
+      <c r="A318" s="7"/>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A319" s="9"/>
+      <c r="A319" s="7"/>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A320" s="9"/>
+      <c r="A320" s="7"/>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A321" s="9"/>
+      <c r="A321" s="7"/>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A322" s="9"/>
+      <c r="A322" s="7"/>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A323" s="9"/>
+      <c r="A323" s="7"/>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A324" s="9"/>
+      <c r="A324" s="7"/>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A325" s="9"/>
+      <c r="A325" s="7"/>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A326" s="9"/>
+      <c r="A326" s="7"/>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A327" s="9"/>
+      <c r="A327" s="7"/>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A328" s="9"/>
+      <c r="A328" s="7"/>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A329" s="9"/>
+      <c r="A329" s="7"/>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A330" s="9"/>
+      <c r="A330" s="7"/>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A331" s="9"/>
+      <c r="A331" s="7"/>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A332" s="9"/>
+      <c r="A332" s="7"/>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A333" s="9"/>
+      <c r="A333" s="7"/>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A334" s="9"/>
+      <c r="A334" s="7"/>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A335" s="9"/>
+      <c r="A335" s="7"/>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A336" s="9"/>
+      <c r="A336" s="7"/>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A337" s="9"/>
+      <c r="A337" s="7"/>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A338" s="9"/>
+      <c r="A338" s="7"/>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A339" s="9"/>
+      <c r="A339" s="7"/>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A340" s="9"/>
+      <c r="A340" s="7"/>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A341" s="9"/>
+      <c r="A341" s="7"/>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A342" s="9"/>
+      <c r="A342" s="7"/>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A343" s="9"/>
+      <c r="A343" s="7"/>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A344" s="9"/>
+      <c r="A344" s="7"/>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A345" s="9"/>
+      <c r="A345" s="7"/>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A346" s="9"/>
+      <c r="A346" s="7"/>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A347" s="9"/>
+      <c r="A347" s="7"/>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A348" s="9"/>
+      <c r="A348" s="7"/>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A349" s="9"/>
+      <c r="A349" s="7"/>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A350" s="9"/>
+      <c r="A350" s="7"/>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A351" s="9"/>
+      <c r="A351" s="7"/>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A352" s="9"/>
+      <c r="A352" s="7"/>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A353" s="9"/>
+      <c r="A353" s="7"/>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A354" s="9"/>
+      <c r="A354" s="7"/>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A355" s="9"/>
+      <c r="A355" s="7"/>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A356" s="9"/>
+      <c r="A356" s="7"/>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A357" s="9"/>
+      <c r="A357" s="7"/>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A358" s="9"/>
+      <c r="A358" s="7"/>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A359" s="9"/>
+      <c r="A359" s="7"/>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A360" s="9"/>
+      <c r="A360" s="7"/>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A361" s="9"/>
+      <c r="A361" s="7"/>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A362" s="9"/>
+      <c r="A362" s="7"/>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A363" s="9"/>
+      <c r="A363" s="7"/>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A364" s="9"/>
+      <c r="A364" s="7"/>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A365" s="9"/>
+      <c r="A365" s="7"/>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A366" s="9"/>
+      <c r="A366" s="7"/>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A367" s="9"/>
+      <c r="A367" s="7"/>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A368" s="9"/>
+      <c r="A368" s="7"/>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A369" s="9"/>
+      <c r="A369" s="7"/>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A370" s="9"/>
+      <c r="A370" s="7"/>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A371" s="9"/>
+      <c r="A371" s="7"/>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A372" s="9"/>
+      <c r="A372" s="7"/>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A373" s="9"/>
+      <c r="A373" s="7"/>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A374" s="9"/>
+      <c r="A374" s="7"/>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A375" s="9"/>
+      <c r="A375" s="7"/>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A376" s="9"/>
+      <c r="A376" s="7"/>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A377" s="9"/>
+      <c r="A377" s="7"/>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A378" s="9"/>
+      <c r="A378" s="7"/>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A379" s="9"/>
+      <c r="A379" s="7"/>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A380" s="9"/>
+      <c r="A380" s="7"/>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A381" s="9"/>
+      <c r="A381" s="7"/>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A382" s="9"/>
+      <c r="A382" s="7"/>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A383" s="9"/>
+      <c r="A383" s="7"/>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A384" s="9"/>
+      <c r="A384" s="7"/>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A385" s="9"/>
+      <c r="A385" s="7"/>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A386" s="9"/>
+      <c r="A386" s="7"/>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A387" s="9"/>
+      <c r="A387" s="7"/>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A388" s="9"/>
+      <c r="A388" s="7"/>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A389" s="9"/>
+      <c r="A389" s="7"/>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A390" s="9"/>
+      <c r="A390" s="7"/>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A391" s="9"/>
+      <c r="A391" s="7"/>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A392" s="9"/>
+      <c r="A392" s="7"/>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A393" s="9"/>
+      <c r="A393" s="7"/>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A394" s="9"/>
+      <c r="A394" s="7"/>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A395" s="9"/>
+      <c r="A395" s="7"/>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A396" s="9"/>
+      <c r="A396" s="7"/>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A397" s="9"/>
+      <c r="A397" s="7"/>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A398" s="9"/>
+      <c r="A398" s="7"/>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A399" s="9"/>
+      <c r="A399" s="7"/>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A400" s="9"/>
+      <c r="A400" s="7"/>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A401" s="9"/>
+      <c r="A401" s="7"/>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A402" s="9"/>
+      <c r="A402" s="7"/>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A403" s="9"/>
+      <c r="A403" s="7"/>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A404" s="9"/>
+      <c r="A404" s="7"/>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A405" s="9"/>
+      <c r="A405" s="7"/>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A406" s="9"/>
+      <c r="A406" s="7"/>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A407" s="9"/>
+      <c r="A407" s="7"/>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A408" s="9"/>
+      <c r="A408" s="7"/>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A409" s="9"/>
+      <c r="A409" s="7"/>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A410" s="9"/>
+      <c r="A410" s="7"/>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A411" s="9"/>
+      <c r="A411" s="7"/>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A412" s="9"/>
+      <c r="A412" s="7"/>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A413" s="9"/>
+      <c r="A413" s="7"/>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A414" s="9"/>
+      <c r="A414" s="7"/>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A415" s="9"/>
+      <c r="A415" s="7"/>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A416" s="9"/>
+      <c r="A416" s="7"/>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A417" s="9"/>
+      <c r="A417" s="7"/>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A418" s="9"/>
+      <c r="A418" s="7"/>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A419" s="9"/>
+      <c r="A419" s="7"/>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A420" s="9"/>
+      <c r="A420" s="7"/>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A421" s="9"/>
+      <c r="A421" s="7"/>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A422" s="9"/>
+      <c r="A422" s="7"/>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A423" s="9"/>
+      <c r="A423" s="7"/>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A424" s="9"/>
+      <c r="A424" s="7"/>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A425" s="9"/>
+      <c r="A425" s="7"/>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A426" s="9"/>
+      <c r="A426" s="7"/>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A427" s="9"/>
+      <c r="A427" s="7"/>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A428" s="9"/>
+      <c r="A428" s="7"/>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A429" s="9"/>
+      <c r="A429" s="7"/>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A430" s="9"/>
+      <c r="A430" s="7"/>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A431" s="9"/>
+      <c r="A431" s="7"/>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A432" s="9"/>
+      <c r="A432" s="7"/>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A433" s="9"/>
+      <c r="A433" s="7"/>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A434" s="9"/>
+      <c r="A434" s="7"/>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A435" s="9"/>
+      <c r="A435" s="7"/>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A436" s="9"/>
+      <c r="A436" s="7"/>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A437" s="9"/>
+      <c r="A437" s="7"/>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A438" s="9"/>
+      <c r="A438" s="7"/>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A439" s="9"/>
+      <c r="A439" s="7"/>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A440" s="9"/>
+      <c r="A440" s="7"/>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A441" s="9"/>
+      <c r="A441" s="7"/>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A442" s="9"/>
+      <c r="A442" s="7"/>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A443" s="9"/>
+      <c r="A443" s="7"/>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A444" s="9"/>
+      <c r="A444" s="7"/>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A445" s="9"/>
+      <c r="A445" s="7"/>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A446" s="9"/>
+      <c r="A446" s="7"/>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A447" s="9"/>
+      <c r="A447" s="7"/>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A448" s="9"/>
+      <c r="A448" s="7"/>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A449" s="9"/>
+      <c r="A449" s="7"/>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A450" s="9"/>
+      <c r="A450" s="7"/>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A451" s="9"/>
+      <c r="A451" s="7"/>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A452" s="9"/>
+      <c r="A452" s="7"/>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A453" s="9"/>
+      <c r="A453" s="7"/>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A454" s="9"/>
+      <c r="A454" s="7"/>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A455" s="9"/>
+      <c r="A455" s="7"/>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A456" s="9"/>
+      <c r="A456" s="7"/>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A457" s="9"/>
+      <c r="A457" s="7"/>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A458" s="9"/>
+      <c r="A458" s="7"/>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A459" s="9"/>
+      <c r="A459" s="7"/>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A460" s="9"/>
+      <c r="A460" s="7"/>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A461" s="9"/>
+      <c r="A461" s="7"/>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A462" s="9"/>
+      <c r="A462" s="7"/>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A463" s="9"/>
+      <c r="A463" s="7"/>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A464" s="9"/>
+      <c r="A464" s="7"/>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A465" s="9"/>
+      <c r="A465" s="7"/>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A466" s="9"/>
+      <c r="A466" s="7"/>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A467" s="9"/>
+      <c r="A467" s="7"/>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A468" s="9"/>
+      <c r="A468" s="7"/>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A469" s="9"/>
+      <c r="A469" s="7"/>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A470" s="9"/>
+      <c r="A470" s="7"/>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A471" s="9"/>
+      <c r="A471" s="7"/>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A472" s="9"/>
+      <c r="A472" s="7"/>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A473" s="9"/>
+      <c r="A473" s="7"/>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A474" s="9"/>
+      <c r="A474" s="7"/>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A475" s="9"/>
+      <c r="A475" s="7"/>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A476" s="9"/>
+      <c r="A476" s="7"/>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A477" s="9"/>
+      <c r="A477" s="7"/>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A478" s="9"/>
+      <c r="A478" s="7"/>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A479" s="9"/>
+      <c r="A479" s="7"/>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A480" s="9"/>
+      <c r="A480" s="7"/>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A481" s="9"/>
+      <c r="A481" s="7"/>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A482" s="9"/>
+      <c r="A482" s="7"/>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A483" s="9"/>
+      <c r="A483" s="7"/>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A484" s="9"/>
+      <c r="A484" s="7"/>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A485" s="9"/>
+      <c r="A485" s="7"/>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A486" s="9"/>
+      <c r="A486" s="7"/>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A487" s="9"/>
+      <c r="A487" s="7"/>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A488" s="9"/>
+      <c r="A488" s="7"/>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A489" s="9"/>
+      <c r="A489" s="7"/>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A490" s="9"/>
+      <c r="A490" s="7"/>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A491" s="9"/>
+      <c r="A491" s="7"/>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A492" s="9"/>
+      <c r="A492" s="7"/>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A493" s="9"/>
+      <c r="A493" s="7"/>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A494" s="9"/>
+      <c r="A494" s="7"/>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A495" s="9"/>
+      <c r="A495" s="7"/>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A496" s="9"/>
+      <c r="A496" s="7"/>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A497" s="9"/>
+      <c r="A497" s="7"/>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A498" s="9"/>
+      <c r="A498" s="7"/>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A499" s="9"/>
+      <c r="A499" s="7"/>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A500" s="9"/>
+      <c r="A500" s="7"/>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A501" s="9"/>
+      <c r="A501" s="7"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
